--- a/TEST27.xlsx
+++ b/TEST27.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\Refurb Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Janczyn\Documents\Test\test27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="196">
   <si>
     <t>Device  ID</t>
   </si>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H131" sqref="H131"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G96" activeCellId="1" sqref="G95 G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,11 +3740,19 @@
         <f t="shared" si="6"/>
         <v>2776</v>
       </c>
-      <c r="C79" s="9"/>
+      <c r="C79" s="9">
+        <v>22</v>
+      </c>
       <c r="D79" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L79" s="47">
@@ -3812,11 +3820,19 @@
         <f t="shared" si="6"/>
         <v>2779</v>
       </c>
-      <c r="C82" s="9"/>
+      <c r="C82" s="9">
+        <v>11</v>
+      </c>
       <c r="D82" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L82" s="47">
@@ -3860,11 +3876,19 @@
         <f t="shared" si="6"/>
         <v>2781</v>
       </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="9">
+        <v>44</v>
+      </c>
       <c r="D84" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L84" s="47">
@@ -4130,11 +4154,19 @@
         <f t="shared" si="6"/>
         <v>2792</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="9">
+        <v>14</v>
+      </c>
       <c r="D95" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L95" s="47">
@@ -4154,11 +4186,19 @@
         <f t="shared" si="6"/>
         <v>2793</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="9">
+        <v>14</v>
+      </c>
       <c r="D96" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L96" s="47">
